--- a/day08/data/다나와_무선청소기_결과_최종.xlsx
+++ b/day08/data/다나와_무선청소기_결과_최종.xlsx
@@ -11070,7 +11070,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11080,13 +11080,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -11144,7 +11138,7 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -11467,7 +11461,7 @@
     <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11481,7 +11475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -11495,7 +11489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -11509,7 +11503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -11523,7 +11517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -11537,7 +11531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -11551,7 +11545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -11565,7 +11559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11579,7 +11573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -11593,7 +11587,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -11607,7 +11601,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -11621,7 +11615,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
@@ -11635,7 +11629,7 @@
         <v>33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -11649,7 +11643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11663,7 +11657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -11677,7 +11671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -11691,7 +11685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -11705,7 +11699,7 @@
         <v>44</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
@@ -11719,7 +11713,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3" t="s">
         <v>47</v>
       </c>
@@ -11733,7 +11727,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -11747,7 +11741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3" t="s">
         <v>53</v>
       </c>
@@ -11761,7 +11755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -11775,7 +11769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3" t="s">
         <v>57</v>
       </c>
@@ -11789,7 +11783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3" t="s">
         <v>59</v>
       </c>
@@ -11803,7 +11797,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3" t="s">
         <v>62</v>
       </c>
@@ -11817,7 +11811,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3" t="s">
         <v>65</v>
       </c>
@@ -11831,7 +11825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
@@ -11845,7 +11839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="3" t="s">
         <v>69</v>
       </c>
@@ -11859,7 +11853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="3" t="s">
         <v>71</v>
       </c>
@@ -11873,7 +11867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="3" t="s">
         <v>74</v>
       </c>
@@ -11887,7 +11881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="3" t="s">
         <v>76</v>
       </c>
@@ -11901,7 +11895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="3" t="s">
         <v>77</v>
       </c>
@@ -11915,7 +11909,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
       <c r="A33" s="3" t="s">
         <v>79</v>
       </c>
@@ -11929,7 +11923,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="3" t="s">
         <v>81</v>
       </c>
@@ -11943,7 +11937,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="19.5">
       <c r="A35" s="3" t="s">
         <v>83</v>
       </c>
@@ -11957,7 +11951,7 @@
         <v>85</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="19.5">
       <c r="A36" s="3" t="s">
         <v>86</v>
       </c>
